--- a/Outlook meeting/input.xlsx
+++ b/Outlook meeting/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HPF1COB\Documents\Anaconda\VS code\Outlook meeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F413EF93-2CA7-4BFD-B4D0-3F4C33CC0248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED827B3-5BDF-4829-9A48-BAAF89C4930C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D9549E2-86CC-49CB-998B-C90A642C979F}"/>
   </bookViews>
@@ -33,9 +33,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+  <si>
+    <t>Presenter</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>P-ID</t>
+  </si>
+  <si>
+    <t>Zhang Shengchang</t>
+  </si>
+  <si>
+    <t>RBCW/SMP-ATS1</t>
+  </si>
+  <si>
+    <t>JIE</t>
+  </si>
+  <si>
+    <t>PM2.5</t>
+  </si>
+  <si>
+    <t>QGC4</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>QWERTYUIOP</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,16 +90,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -61,13 +130,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -79,40 +148,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -124,28 +163,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -154,40 +178,23 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -199,69 +206,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -571,299 +543,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDB05E4-E0DF-4810-AE02-D6490B4BAC99}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>75</v>
-      </c>
-      <c r="B1" s="2">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2">
-        <v>89</v>
-      </c>
-      <c r="E1" s="2">
-        <v>53</v>
-      </c>
-      <c r="F1" s="2">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2">
-        <v>65</v>
-      </c>
-      <c r="H1" s="2">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2">
-        <v>65</v>
-      </c>
-      <c r="J1" s="2">
-        <v>34</v>
-      </c>
-      <c r="K1" s="2">
-        <v>64</v>
-      </c>
-      <c r="L1" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5">
-        <v>54</v>
-      </c>
-      <c r="C2" s="5">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5">
-        <v>48</v>
-      </c>
-      <c r="E2" s="5">
-        <v>39</v>
-      </c>
-      <c r="F2" s="5">
+    <row r="1" spans="2:5" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5">
-        <v>52</v>
-      </c>
-      <c r="H2" s="5">
-        <v>43</v>
-      </c>
-      <c r="I2" s="5">
-        <v>33</v>
-      </c>
-      <c r="J2" s="5">
-        <v>68</v>
-      </c>
-      <c r="K2" s="5">
-        <v>69</v>
-      </c>
-      <c r="L2" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>42</v>
-      </c>
-      <c r="B3" s="5">
-        <v>68</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
-        <v>77</v>
-      </c>
-      <c r="F3" s="5">
-        <v>34</v>
-      </c>
-      <c r="G3" s="5">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5">
-        <v>43</v>
-      </c>
-      <c r="J3" s="5">
-        <v>21</v>
-      </c>
-      <c r="K3" s="5">
-        <v>79</v>
-      </c>
-      <c r="L3" s="6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>88</v>
-      </c>
-      <c r="B4" s="5">
-        <v>88</v>
-      </c>
-      <c r="C4" s="5">
-        <v>38</v>
-      </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5">
-        <v>45</v>
-      </c>
-      <c r="G4" s="5">
-        <v>26</v>
-      </c>
-      <c r="H4" s="5">
-        <v>49</v>
-      </c>
-      <c r="I4" s="5">
-        <v>30</v>
-      </c>
-      <c r="J4" s="5">
-        <v>68</v>
-      </c>
-      <c r="K4" s="5">
-        <v>11</v>
-      </c>
-      <c r="L4" s="6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>47</v>
-      </c>
-      <c r="B5" s="5">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5">
-        <v>64</v>
-      </c>
-      <c r="F5" s="5">
-        <v>55</v>
-      </c>
-      <c r="G5" s="5">
-        <v>83</v>
-      </c>
-      <c r="H5" s="5">
-        <v>78</v>
-      </c>
-      <c r="I5" s="5">
-        <v>35</v>
-      </c>
-      <c r="J5" s="5">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5">
-        <v>38</v>
-      </c>
-      <c r="L5" s="6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>96</v>
-      </c>
-      <c r="B6" s="5">
-        <v>47</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>44</v>
-      </c>
-      <c r="H6" s="5">
-        <v>87</v>
-      </c>
-      <c r="I6" s="5">
-        <v>67</v>
-      </c>
-      <c r="J6" s="5">
-        <v>24</v>
-      </c>
-      <c r="K6" s="5">
-        <v>59</v>
-      </c>
-      <c r="L6" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8">
-        <v>94</v>
-      </c>
-      <c r="D7" s="8">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8">
-        <v>63</v>
-      </c>
-      <c r="H7" s="8">
-        <v>99</v>
-      </c>
-      <c r="I7" s="8">
-        <v>31</v>
-      </c>
-      <c r="J7" s="8">
-        <v>76</v>
-      </c>
-      <c r="K7" s="8">
-        <v>18</v>
-      </c>
-      <c r="L7" s="9">
-        <v>90</v>
+      <c r="C9" s="5">
+        <v>328257</v>
+      </c>
+      <c r="D9" s="5">
+        <v>328257</v>
+      </c>
+      <c r="E9" s="5">
+        <v>328257</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:L7">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
-      <formula>0</formula>
-      <formula>25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
-      <formula>26</formula>
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>51</formula>
-      <formula>75</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
-      <formula>76</formula>
-      <formula>100</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
